--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230333</x:t>
@@ -401,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -701,7 +710,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -711,7 +720,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.890625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1110,7 +1119,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1330,9 +1339,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1355,16 +1366,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1701,6 +1710,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240020</x:t>
   </x:si>
   <x:si>
@@ -58,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Basma yahia eladwey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>4240015</x:t>
@@ -410,7 +428,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -710,7 +728,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -801,7 +819,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6942217245</x:v>
+        <x:v>45922.3709689005</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -833,7 +851,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45907.6942217245</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -865,7 +883,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.8096168634</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -897,7 +915,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45909.8096168634</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -929,7 +947,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -961,7 +979,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4221888079</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -993,7 +1011,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1025,7 +1043,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4846765856</x:v>
+        <x:v>45909.4221888079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1057,7 +1075,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1085,9 +1103,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6661258449</x:v>
+        <x:v>45909.4846765856</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1110,16 +1130,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1142,16 +1162,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45907.6661258449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1183,7 +1201,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1215,7 +1233,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1247,7 +1265,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1279,7 +1297,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1311,7 +1329,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1343,7 +1361,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1371,9 +1389,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1396,16 +1416,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1428,16 +1448,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1469,7 +1487,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1501,7 +1519,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1533,7 +1551,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1565,7 +1583,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1597,7 +1615,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1629,7 +1647,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1661,7 +1679,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1693,7 +1711,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1725,7 +1743,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1742,6 +1760,70 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45908.4149523495</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>khadija ashraf nasreldin youssef elmenoufi</x:t>
   </x:si>
   <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240315</x:t>
   </x:si>
   <x:si>
@@ -268,6 +277,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -428,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -728,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1043,7 +1061,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4221888079</x:v>
+        <x:v>45923.4968197917</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1075,7 +1093,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45909.4221888079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1107,7 +1125,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4846765856</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1139,7 +1157,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45909.4846765856</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1167,9 +1185,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6661258449</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1192,16 +1212,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45907.6661258449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1233,7 +1251,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1265,7 +1283,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1297,7 +1315,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1329,7 +1347,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1361,7 +1379,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1393,7 +1411,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1425,7 +1443,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1453,9 +1471,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1478,16 +1498,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1519,7 +1537,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1551,7 +1569,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1583,7 +1601,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1615,7 +1633,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1647,7 +1665,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1679,7 +1697,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1711,7 +1729,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1743,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1775,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1807,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1825,6 +1843,70 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45908.4149523495</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1837,6 +1919,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Discrete Mathematics (MTHS004) Location : [20510]20510-60-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,12 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1240331</x:t>
@@ -446,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1217,9 +1211,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6661258449</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1242,16 +1238,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1274,16 +1270,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1306,16 +1302,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1338,16 +1334,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1370,16 +1366,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1402,16 +1398,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1434,16 +1430,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1466,16 +1462,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1503,9 +1497,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1528,16 +1524,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1560,16 +1556,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1592,16 +1588,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1624,16 +1620,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1656,16 +1652,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1688,16 +1684,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1720,16 +1716,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,16 +1748,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,16 +1780,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,16 +1812,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1848,16 +1844,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1875,38 +1871,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.666621412</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1919,9 +1883,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Discrete Mathematics (MTHS004) Location : [20510]20510-60-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,6 +141,12 @@
     <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
   </x:si>
   <x:si>
+    <x:t>4240026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240331</x:t>
   </x:si>
   <x:si>
@@ -217,15 +223,6 @@
   </x:si>
   <x:si>
     <x:t>فاطمة محمد فتحى سرور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فرح محمد عشري بخيت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farah Mohamed Ashry Bekhet</x:t>
   </x:si>
   <x:si>
     <x:t>1240119</x:t>
@@ -1211,11 +1208,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45907.6661258449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,16 +1233,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,16 +1265,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1302,16 +1297,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,16 +1329,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,16 +1361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1398,16 +1393,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1430,16 +1425,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1462,14 +1457,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,11 +1494,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,13 +1519,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6655778935</x:v>
@@ -1556,13 +1551,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6670297106</x:v>
@@ -1588,13 +1583,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6784352662</x:v>
@@ -1620,13 +1615,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6722659375</x:v>
@@ -1652,13 +1647,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6659424769</x:v>
@@ -1684,13 +1679,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45923.5143698264</x:v>
@@ -1716,13 +1711,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6651053241</x:v>
@@ -1748,13 +1743,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45908.4148616088</x:v>
@@ -1780,13 +1775,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.6751492708</x:v>
@@ -1812,13 +1807,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45908.4149523495</x:v>
@@ -1844,13 +1839,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.666621412</x:v>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>khadija ashraf nasreldin youssef elmenoufi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان باسم السيد احمد حسين شامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAWAN BASSEM AL SAYED AHMED HUSSEIN SHAMEL</x:t>
   </x:si>
   <x:si>
     <x:t>4250173</x:t>
@@ -437,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -737,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -746,7 +755,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.890625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.430625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1052,7 +1061,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.4968197917</x:v>
+        <x:v>45928.6882905093</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4221888079</x:v>
+        <x:v>45923.4968197917</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45909.4221888079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4846765856</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45909.4846765856</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1208,9 +1217,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6661258449</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1233,16 +1244,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45907.6661258449</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1494,9 +1503,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1519,16 +1530,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1866,6 +1875,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1878,6 +1919,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Discrete Mathematics (MTHS004) Location : [20510]20510-60-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -295,6 +295,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240370</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1793,7 +1802,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45931.4457999653</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS004_Tutorial-35058.xlsx
+++ b/downloaded_files/MTHS004_Tutorial-35058.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -295,15 +295,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240370</x:t>
@@ -455,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1802,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45931.4457999653</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1915,38 +1906,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.666621412</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
